--- a/Statistical analyses/Tukey posthoc/AP/Km, Vegetation x Precipitation.xlsx
+++ b/Statistical analyses/Tukey posthoc/AP/Km, Vegetation x Precipitation.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMAOXD\Documents\UCI undergrad\Bio-ESS 199\Microbial enzyme activity in leaf litter\Statistical analyses\Tukey posthoc\AP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05FFD49-ADFE-4DC8-B34C-462DFAECB753}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Km" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -52,8 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,12 +76,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -105,17 +117,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -162,7 +183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,9 +215,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,6 +267,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,14 +460,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,76 +496,76 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>-0.9422</v>
-      </c>
-      <c r="D2">
-        <v>0.0164</v>
-      </c>
-      <c r="E2">
-        <v>-1.7525</v>
-      </c>
-      <c r="F2">
-        <v>-0.132</v>
-      </c>
-      <c r="G2" t="b">
+      <c r="C2" s="2">
+        <v>-0.94220000000000004</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-1.7524999999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="G2" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>-1.1439</v>
-      </c>
-      <c r="D3">
-        <v>0.0023</v>
-      </c>
-      <c r="E3">
-        <v>-1.9541</v>
-      </c>
-      <c r="F3">
-        <v>-0.3336</v>
-      </c>
-      <c r="G3" t="b">
+      <c r="C3" s="2">
+        <v>-1.1438999999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.3E-3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-1.9540999999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-0.33360000000000001</v>
+      </c>
+      <c r="G3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>-1.1465</v>
-      </c>
-      <c r="D4">
-        <v>0.0023</v>
-      </c>
-      <c r="E4">
-        <v>-1.9567</v>
-      </c>
-      <c r="F4">
-        <v>-0.3363</v>
-      </c>
-      <c r="G4" t="b">
+      <c r="C4" s="2">
+        <v>-1.1465000000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.3E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-1.9567000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-0.33629999999999999</v>
+      </c>
+      <c r="G4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -519,13 +582,13 @@
         <v>-1.0118</v>
       </c>
       <c r="F5">
-        <v>0.6086</v>
+        <v>0.60860000000000003</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -533,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>-0.2042</v>
+        <v>-0.20419999999999999</v>
       </c>
       <c r="D6">
         <v>0.9</v>
@@ -542,13 +605,13 @@
         <v>-1.0145</v>
       </c>
       <c r="F6">
-        <v>0.606</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -556,16 +619,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>-0.0026</v>
+        <v>-2.5999999999999999E-3</v>
       </c>
       <c r="D7">
         <v>0.9</v>
       </c>
       <c r="E7">
-        <v>-0.8129</v>
+        <v>-0.81289999999999996</v>
       </c>
       <c r="F7">
-        <v>0.8076</v>
+        <v>0.80759999999999998</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
